--- a/respuestas_examen_pablo_lledo.xlsx
+++ b/respuestas_examen_pablo_lledo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capacitacion\pmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78DF7C-2D68-4A81-A6B5-19A12CC154B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39ED46-A599-4955-A37E-DCAB036C15B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12264" windowHeight="3828" activeTab="1" xr2:uid="{693C5109-D62F-498F-B714-F5F2A728B94D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12264" windowHeight="3828" activeTab="3" xr2:uid="{693C5109-D62F-498F-B714-F5F2A728B94D}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagnostico" sheetId="1" r:id="rId1"/>
     <sheet name="Marco Conceptual" sheetId="2" r:id="rId2"/>
     <sheet name="Procesos" sheetId="3" r:id="rId3"/>
+    <sheet name="Integración" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -647,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A623D84-F55A-4D30-8038-9CE22FC27859}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -760,11 +761,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F98DCB-17E0-4791-8A0A-B77D196B1819}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4A517A-8BC4-4024-8C58-993402C6CA26}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
